--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd80-Cd274.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd80-Cd274.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.557693</v>
+        <v>1.152905666666667</v>
       </c>
       <c r="H2">
-        <v>64.673079</v>
+        <v>3.458717</v>
       </c>
       <c r="I2">
-        <v>0.5505707555812251</v>
+        <v>0.06522949989114324</v>
       </c>
       <c r="J2">
-        <v>0.5505707555812251</v>
+        <v>0.06522949989114325</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.438552</v>
+        <v>10.43877666666667</v>
       </c>
       <c r="N2">
-        <v>46.315656</v>
+        <v>31.31633</v>
       </c>
       <c r="O2">
-        <v>0.4516083650784051</v>
+        <v>0.478485024444405</v>
       </c>
       <c r="P2">
-        <v>0.4516083650784052</v>
+        <v>0.4784850244444049</v>
       </c>
       <c r="Q2">
-        <v>332.819564380536</v>
+        <v>12.03492477206778</v>
       </c>
       <c r="R2">
-        <v>2995.376079424824</v>
+        <v>108.31432294861</v>
       </c>
       <c r="S2">
-        <v>0.2486423587880193</v>
+        <v>0.03121133884990998</v>
       </c>
       <c r="T2">
-        <v>0.2486423587880193</v>
+        <v>0.03121133884990998</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.557693</v>
+        <v>1.152905666666667</v>
       </c>
       <c r="H3">
-        <v>64.673079</v>
+        <v>3.458717</v>
       </c>
       <c r="I3">
-        <v>0.5505707555812251</v>
+        <v>0.06522949989114324</v>
       </c>
       <c r="J3">
-        <v>0.5505707555812251</v>
+        <v>0.06522949989114325</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.897315</v>
       </c>
       <c r="O3">
-        <v>0.04775206941738987</v>
+        <v>0.07482651662844755</v>
       </c>
       <c r="P3">
-        <v>0.04775206941738987</v>
+        <v>0.07482651662844754</v>
       </c>
       <c r="Q3">
-        <v>35.19160443143166</v>
+        <v>1.882047404983889</v>
       </c>
       <c r="R3">
-        <v>316.724439882885</v>
+        <v>16.938426644855</v>
       </c>
       <c r="S3">
-        <v>0.02629089293969945</v>
+        <v>0.004880896258269947</v>
       </c>
       <c r="T3">
-        <v>0.02629089293969946</v>
+        <v>0.004880896258269948</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.557693</v>
+        <v>1.152905666666667</v>
       </c>
       <c r="H4">
-        <v>64.673079</v>
+        <v>3.458717</v>
       </c>
       <c r="I4">
-        <v>0.5505707555812251</v>
+        <v>0.06522949989114324</v>
       </c>
       <c r="J4">
-        <v>0.5505707555812251</v>
+        <v>0.06522949989114325</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3869703333333334</v>
+        <v>0.4778236666666666</v>
       </c>
       <c r="N4">
-        <v>1.160911</v>
+        <v>1.433471</v>
       </c>
       <c r="O4">
-        <v>0.01131965222972414</v>
+        <v>0.02190213241702797</v>
       </c>
       <c r="P4">
-        <v>0.01131965222972415</v>
+        <v>0.02190213241702797</v>
       </c>
       <c r="Q4">
-        <v>8.342187646107668</v>
+        <v>0.5508856129674444</v>
       </c>
       <c r="R4">
-        <v>75.079688814969</v>
+        <v>4.957970516707</v>
       </c>
       <c r="S4">
-        <v>0.006232269481035922</v>
+        <v>0.001428665144112331</v>
       </c>
       <c r="T4">
-        <v>0.006232269481035922</v>
+        <v>0.001428665144112331</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.557693</v>
+        <v>1.152905666666667</v>
       </c>
       <c r="H5">
-        <v>64.673079</v>
+        <v>3.458717</v>
       </c>
       <c r="I5">
-        <v>0.5505707555812251</v>
+        <v>0.06522949989114324</v>
       </c>
       <c r="J5">
-        <v>0.5505707555812251</v>
+        <v>0.06522949989114325</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.727748</v>
+        <v>9.267269333333333</v>
       </c>
       <c r="N5">
-        <v>50.183244</v>
+        <v>27.801808</v>
       </c>
       <c r="O5">
-        <v>0.4893199132744808</v>
+        <v>0.4247863265101195</v>
       </c>
       <c r="P5">
-        <v>0.4893199132744808</v>
+        <v>0.4247863265101195</v>
       </c>
       <c r="Q5">
-        <v>360.611655965364</v>
+        <v>10.68428732892622</v>
       </c>
       <c r="R5">
-        <v>3245.504903688276</v>
+        <v>96.15858596033601</v>
       </c>
       <c r="S5">
-        <v>0.2694052343724705</v>
+        <v>0.02770859963885098</v>
       </c>
       <c r="T5">
-        <v>0.2694052343724705</v>
+        <v>0.02770859963885099</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>11.945608</v>
       </c>
       <c r="I6">
-        <v>0.1016945926207894</v>
+        <v>0.2252875952949142</v>
       </c>
       <c r="J6">
-        <v>0.1016945926207894</v>
+        <v>0.2252875952949143</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.438552</v>
+        <v>10.43877666666667</v>
       </c>
       <c r="N6">
-        <v>46.315656</v>
+        <v>31.31633</v>
       </c>
       <c r="O6">
-        <v>0.4516083650784051</v>
+        <v>0.478485024444405</v>
       </c>
       <c r="P6">
-        <v>0.4516083650784052</v>
+        <v>0.4784850244444049</v>
       </c>
       <c r="Q6">
-        <v>61.474296759872</v>
+        <v>41.56584468651556</v>
       </c>
       <c r="R6">
-        <v>553.2686708388479</v>
+        <v>374.09260217864</v>
       </c>
       <c r="S6">
-        <v>0.04592612871078913</v>
+        <v>0.1077967405417083</v>
       </c>
       <c r="T6">
-        <v>0.04592612871078913</v>
+        <v>0.1077967405417082</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>11.945608</v>
       </c>
       <c r="I7">
-        <v>0.1016945926207894</v>
+        <v>0.2252875952949142</v>
       </c>
       <c r="J7">
-        <v>0.1016945926207894</v>
+        <v>0.2252875952949143</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>4.897315</v>
       </c>
       <c r="O7">
-        <v>0.04775206941738987</v>
+        <v>0.07482651662844755</v>
       </c>
       <c r="P7">
-        <v>0.04775206941738987</v>
+        <v>0.07482651662844754</v>
       </c>
       <c r="Q7">
         <v>6.500156138057777</v>
@@ -883,10 +883,10 @@
         <v>58.50140524252</v>
       </c>
       <c r="S7">
-        <v>0.004856127246201117</v>
+        <v>0.01685748599551786</v>
       </c>
       <c r="T7">
-        <v>0.004856127246201118</v>
+        <v>0.01685748599551786</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>11.945608</v>
       </c>
       <c r="I8">
-        <v>0.1016945926207894</v>
+        <v>0.2252875952949142</v>
       </c>
       <c r="J8">
-        <v>0.1016945926207894</v>
+        <v>0.2252875952949143</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3869703333333334</v>
+        <v>0.4778236666666666</v>
       </c>
       <c r="N8">
-        <v>1.160911</v>
+        <v>1.433471</v>
       </c>
       <c r="O8">
-        <v>0.01131965222972414</v>
+        <v>0.02190213241702797</v>
       </c>
       <c r="P8">
-        <v>0.01131965222972415</v>
+        <v>0.02190213241702797</v>
       </c>
       <c r="Q8">
-        <v>1.540865303209778</v>
+        <v>1.902631405040889</v>
       </c>
       <c r="R8">
-        <v>13.867787728888</v>
+        <v>17.123682645368</v>
       </c>
       <c r="S8">
-        <v>0.001151147422110807</v>
+        <v>0.00493427874406302</v>
       </c>
       <c r="T8">
-        <v>0.001151147422110807</v>
+        <v>0.00493427874406302</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>11.945608</v>
       </c>
       <c r="I9">
-        <v>0.1016945926207894</v>
+        <v>0.2252875952949142</v>
       </c>
       <c r="J9">
-        <v>0.1016945926207894</v>
+        <v>0.2252875952949143</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.727748</v>
+        <v>9.267269333333333</v>
       </c>
       <c r="N9">
-        <v>50.183244</v>
+        <v>27.801808</v>
       </c>
       <c r="O9">
-        <v>0.4893199132744808</v>
+        <v>0.4247863265101195</v>
       </c>
       <c r="P9">
-        <v>0.4893199132744808</v>
+        <v>0.4247863265101195</v>
       </c>
       <c r="Q9">
-        <v>66.60770677692801</v>
+        <v>36.90105556214044</v>
       </c>
       <c r="R9">
-        <v>599.469360992352</v>
+        <v>332.109500059264</v>
       </c>
       <c r="S9">
-        <v>0.04976118924168831</v>
+        <v>0.09569909001362512</v>
       </c>
       <c r="T9">
-        <v>0.04976118924168831</v>
+        <v>0.09569909001362513</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.608641</v>
+        <v>1.517768666666667</v>
       </c>
       <c r="H10">
-        <v>4.825923</v>
+        <v>4.553306</v>
       </c>
       <c r="I10">
-        <v>0.04108374169856384</v>
+        <v>0.08587284626968379</v>
       </c>
       <c r="J10">
-        <v>0.04108374169856383</v>
+        <v>0.08587284626968379</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.438552</v>
+        <v>10.43877666666667</v>
       </c>
       <c r="N10">
-        <v>46.315656</v>
+        <v>31.31633</v>
       </c>
       <c r="O10">
-        <v>0.4516083650784051</v>
+        <v>0.478485024444405</v>
       </c>
       <c r="P10">
-        <v>0.4516083650784052</v>
+        <v>0.4784850244444049</v>
       </c>
       <c r="Q10">
-        <v>24.835087727832</v>
+        <v>15.84364814299778</v>
       </c>
       <c r="R10">
-        <v>223.515789550488</v>
+        <v>142.59283328698</v>
       </c>
       <c r="S10">
-        <v>0.01855376141979191</v>
+        <v>0.04108887094646028</v>
       </c>
       <c r="T10">
-        <v>0.01855376141979191</v>
+        <v>0.04108887094646027</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.608641</v>
+        <v>1.517768666666667</v>
       </c>
       <c r="H11">
-        <v>4.825923</v>
+        <v>4.553306</v>
       </c>
       <c r="I11">
-        <v>0.04108374169856384</v>
+        <v>0.08587284626968379</v>
       </c>
       <c r="J11">
-        <v>0.04108374169856383</v>
+        <v>0.08587284626968379</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.897315</v>
       </c>
       <c r="O11">
-        <v>0.04775206941738987</v>
+        <v>0.07482651662844755</v>
       </c>
       <c r="P11">
-        <v>0.04775206941738987</v>
+        <v>0.07482651662844754</v>
       </c>
       <c r="Q11">
-        <v>2.626007232971667</v>
+        <v>2.477663752598889</v>
       </c>
       <c r="R11">
-        <v>23.634065096745</v>
+        <v>22.29897377339</v>
       </c>
       <c r="S11">
-        <v>0.001961833685515935</v>
+        <v>0.006425565959330614</v>
       </c>
       <c r="T11">
-        <v>0.001961833685515935</v>
+        <v>0.006425565959330613</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.608641</v>
+        <v>1.517768666666667</v>
       </c>
       <c r="H12">
-        <v>4.825923</v>
+        <v>4.553306</v>
       </c>
       <c r="I12">
-        <v>0.04108374169856384</v>
+        <v>0.08587284626968379</v>
       </c>
       <c r="J12">
-        <v>0.04108374169856383</v>
+        <v>0.08587284626968379</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3869703333333334</v>
+        <v>0.4778236666666666</v>
       </c>
       <c r="N12">
-        <v>1.160911</v>
+        <v>1.433471</v>
       </c>
       <c r="O12">
-        <v>0.01131965222972414</v>
+        <v>0.02190213241702797</v>
       </c>
       <c r="P12">
-        <v>0.01131965222972415</v>
+        <v>0.02190213241702797</v>
       </c>
       <c r="Q12">
-        <v>0.6224963439836668</v>
+        <v>0.7252257894584445</v>
       </c>
       <c r="R12">
-        <v>5.602467095853001</v>
+        <v>6.527032105126</v>
       </c>
       <c r="S12">
-        <v>0.0004650536683235589</v>
+        <v>0.001880798450025701</v>
       </c>
       <c r="T12">
-        <v>0.0004650536683235589</v>
+        <v>0.001880798450025701</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.608641</v>
+        <v>1.517768666666667</v>
       </c>
       <c r="H13">
-        <v>4.825923</v>
+        <v>4.553306</v>
       </c>
       <c r="I13">
-        <v>0.04108374169856384</v>
+        <v>0.08587284626968379</v>
       </c>
       <c r="J13">
-        <v>0.04108374169856383</v>
+        <v>0.08587284626968379</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.727748</v>
+        <v>9.267269333333333</v>
       </c>
       <c r="N13">
-        <v>50.183244</v>
+        <v>27.801808</v>
       </c>
       <c r="O13">
-        <v>0.4893199132744808</v>
+        <v>0.4247863265101195</v>
       </c>
       <c r="P13">
-        <v>0.4893199132744808</v>
+        <v>0.4247863265101195</v>
       </c>
       <c r="Q13">
-        <v>26.90894127046801</v>
+        <v>14.06557101969422</v>
       </c>
       <c r="R13">
-        <v>242.180471434212</v>
+        <v>126.590139177248</v>
       </c>
       <c r="S13">
-        <v>0.02010309292493243</v>
+        <v>0.0364776109138672</v>
       </c>
       <c r="T13">
-        <v>0.02010309292493243</v>
+        <v>0.0364776109138672</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.00696933333333</v>
+        <v>11.02206166666667</v>
       </c>
       <c r="H14">
-        <v>36.020908</v>
+        <v>33.066185</v>
       </c>
       <c r="I14">
-        <v>0.3066509100994217</v>
+        <v>0.6236100585442587</v>
       </c>
       <c r="J14">
-        <v>0.3066509100994217</v>
+        <v>0.6236100585442588</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.438552</v>
+        <v>10.43877666666667</v>
       </c>
       <c r="N14">
-        <v>46.315656</v>
+        <v>31.31633</v>
       </c>
       <c r="O14">
-        <v>0.4516083650784051</v>
+        <v>0.478485024444405</v>
       </c>
       <c r="P14">
-        <v>0.4516083650784052</v>
+        <v>0.4784850244444049</v>
       </c>
       <c r="Q14">
-        <v>185.370220415072</v>
+        <v>115.0568401445611</v>
       </c>
       <c r="R14">
-        <v>1668.331983735648</v>
+        <v>1035.51156130105</v>
       </c>
       <c r="S14">
-        <v>0.1384861161598048</v>
+        <v>0.2983880741063265</v>
       </c>
       <c r="T14">
-        <v>0.1384861161598048</v>
+        <v>0.2983880741063264</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.00696933333333</v>
+        <v>11.02206166666667</v>
       </c>
       <c r="H15">
-        <v>36.020908</v>
+        <v>33.066185</v>
       </c>
       <c r="I15">
-        <v>0.3066509100994217</v>
+        <v>0.6236100585442587</v>
       </c>
       <c r="J15">
-        <v>0.3066509100994217</v>
+        <v>0.6236100585442588</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>4.897315</v>
       </c>
       <c r="O15">
-        <v>0.04775206941738987</v>
+        <v>0.07482651662844755</v>
       </c>
       <c r="P15">
-        <v>0.04775206941738987</v>
+        <v>0.07482651662844754</v>
       </c>
       <c r="Q15">
-        <v>19.60063700689111</v>
+        <v>17.99283597703056</v>
       </c>
       <c r="R15">
-        <v>176.40573306202</v>
+        <v>161.935523793275</v>
       </c>
       <c r="S15">
-        <v>0.01464321554597336</v>
+        <v>0.04666256841532912</v>
       </c>
       <c r="T15">
-        <v>0.01464321554597337</v>
+        <v>0.04666256841532912</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.00696933333333</v>
+        <v>11.02206166666667</v>
       </c>
       <c r="H16">
-        <v>36.020908</v>
+        <v>33.066185</v>
       </c>
       <c r="I16">
-        <v>0.3066509100994217</v>
+        <v>0.6236100585442587</v>
       </c>
       <c r="J16">
-        <v>0.3066509100994217</v>
+        <v>0.6236100585442588</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3869703333333334</v>
+        <v>0.4778236666666666</v>
       </c>
       <c r="N16">
-        <v>1.160911</v>
+        <v>1.433471</v>
       </c>
       <c r="O16">
-        <v>0.01131965222972414</v>
+        <v>0.02190213241702797</v>
       </c>
       <c r="P16">
-        <v>0.01131965222972415</v>
+        <v>0.02190213241702797</v>
       </c>
       <c r="Q16">
-        <v>4.646340925243111</v>
+        <v>5.266601919792778</v>
       </c>
       <c r="R16">
-        <v>41.817068327188</v>
+        <v>47.399417278135</v>
       </c>
       <c r="S16">
-        <v>0.003471181658253857</v>
+        <v>0.01365839007882692</v>
       </c>
       <c r="T16">
-        <v>0.003471181658253857</v>
+        <v>0.01365839007882692</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.00696933333333</v>
+        <v>11.02206166666667</v>
       </c>
       <c r="H17">
-        <v>36.020908</v>
+        <v>33.066185</v>
       </c>
       <c r="I17">
-        <v>0.3066509100994217</v>
+        <v>0.6236100585442587</v>
       </c>
       <c r="J17">
-        <v>0.3066509100994217</v>
+        <v>0.6236100585442588</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.727748</v>
+        <v>9.267269333333333</v>
       </c>
       <c r="N17">
-        <v>50.183244</v>
+        <v>27.801808</v>
       </c>
       <c r="O17">
-        <v>0.4893199132744808</v>
+        <v>0.4247863265101195</v>
       </c>
       <c r="P17">
-        <v>0.4893199132744808</v>
+        <v>0.4247863265101195</v>
       </c>
       <c r="Q17">
-        <v>200.849557251728</v>
+        <v>102.1444140736089</v>
       </c>
       <c r="R17">
-        <v>1807.646015265552</v>
+        <v>919.2997266624801</v>
       </c>
       <c r="S17">
-        <v>0.1500503967353896</v>
+        <v>0.2649010259437762</v>
       </c>
       <c r="T17">
-        <v>0.1500503967353896</v>
+        <v>0.2649010259437763</v>
       </c>
     </row>
   </sheetData>
